--- a/metrics/R2/upto time/Retinopatía de fondo (UPTO).xlsx
+++ b/metrics/R2/upto time/Retinopatía de fondo (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5254469522339348</v>
+        <v>0.5730332030979276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5254469522339349</v>
+        <v>0.5730332030979276</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5254469522339349</v>
+        <v>0.5730332030979276</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.96831732975229</v>
+        <v>0.8646209646486966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9686668336254521</v>
+        <v>0.8615856771242562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9684583765974084</v>
+        <v>0.8654168151041529</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9692097822673842</v>
+        <v>0.8133762217722429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9692374952622216</v>
+        <v>0.8272794241694819</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9692100832308973</v>
+        <v>0.8266128474659548</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9325343697234461</v>
+        <v>0.697749120889276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9201330721000101</v>
+        <v>0.7316770277827032</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9393444434836198</v>
+        <v>0.6984924398813723</v>
       </c>
     </row>
   </sheetData>
